--- a/Financial Modelling Prep Library/Company Financial Data/BBBY/quarter/stock_price_data.xlsx
+++ b/Financial Modelling Prep Library/Company Financial Data/BBBY/quarter/stock_price_data.xlsx
@@ -467,6 +467,15 @@
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="B2">
+        <v>24.73999977111816</v>
+      </c>
+      <c r="C2">
+        <v>19.84000015258789</v>
+      </c>
+      <c r="D2">
+        <v>22.50360648358454</v>
+      </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
